--- a/results.xlsx
+++ b/results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1042">
   <si>
     <t>imageName</t>
   </si>
@@ -457,6 +457,2241 @@
   </si>
   <si>
     <t>colorResults</t>
+  </si>
+  <si>
+    <t>imageName</t>
+  </si>
+  <si>
+    <t>011001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4_3.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>013001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>041001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>a_011692_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_011702_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012092_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012112_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012132_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012152_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012182_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015632_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015662_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015682_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016522_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016532_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016542_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016552_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016562_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016572_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016582_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016592_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016612_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011806_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011846_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013396_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013446_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013866_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013876_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013886_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016896_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016906_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016916_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016926_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016946_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016956_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>colorResults</t>
+  </si>
+  <si>
+    <t>greyScaleResults</t>
+  </si>
+  <si>
+    <t>imageName</t>
+  </si>
+  <si>
+    <t>011001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4_3.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>013001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>041001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>a_011692_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_011702_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012092_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012112_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012132_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012152_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012182_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015632_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015662_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015682_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016522_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016532_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016542_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016552_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016562_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016572_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016582_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016592_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016612_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011806_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011846_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013396_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013446_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013866_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013876_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013886_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016896_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016906_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016916_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016926_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016946_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016956_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>colorResults</t>
+  </si>
+  <si>
+    <t>greyScaleResults</t>
+  </si>
+  <si>
+    <t>imageName</t>
+  </si>
+  <si>
+    <t>011001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4_3.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>013001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>041001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>a_011692_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_011702_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012092_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012112_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012132_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012152_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012182_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015632_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015662_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015682_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016522_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016532_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016542_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016552_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016562_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016572_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016582_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016592_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016612_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011806_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011846_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013396_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013446_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013866_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013876_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013886_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016896_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016906_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016916_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016926_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016946_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016956_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>colorResults</t>
+  </si>
+  <si>
+    <t>greyScaleResults</t>
+  </si>
+  <si>
+    <t>imageName</t>
+  </si>
+  <si>
+    <t>011001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4_3.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>013001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>041001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>a_011692_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_011702_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012092_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012112_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012132_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012152_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012182_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015632_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015662_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015682_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016522_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016532_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016542_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016552_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016562_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016572_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016582_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016592_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016612_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011806_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011846_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013396_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013446_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013866_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013876_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013886_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016896_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016906_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016916_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016926_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016946_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016956_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>colorResults</t>
+  </si>
+  <si>
+    <t>greyScaleResults</t>
+  </si>
+  <si>
+    <t>imageName</t>
+  </si>
+  <si>
+    <t>011001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030034.MP4_3.jpg</t>
+  </si>
+  <si>
+    <t>011001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>012001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>013001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>014001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>015001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>016001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>017001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>018001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010032.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>019001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>020001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>021001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>022001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4-2.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>023001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>024001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>025001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>026001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH010034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>027001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>028001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>029001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>030001_GH030035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>031001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH020034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>032001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>033001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH010035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>034001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH010036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>035001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>036001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH020036.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>037001_GH030034.MP4_2.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>038001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010032.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH010033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>039001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020033.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>040001_GH020035.MP4.jpg</t>
+  </si>
+  <si>
+    <t>041001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH010034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>042001_GH020034.MP4.jpg</t>
+  </si>
+  <si>
+    <t>a_011692_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_011702_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012092_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012112_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012132_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012152_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012182_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_012602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015632_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015662_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_015682_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016522_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016532_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016542_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016552_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016562_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016572_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016582_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016592_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016602_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>a_016612_Gx010023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011806_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_011846_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013396_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013446_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013866_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013876_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_013886_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016896_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016906_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016916_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016926_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016946_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>b_016956_Gx020023-1.m4v.jpg</t>
+  </si>
+  <si>
+    <t>colorResults</t>
+  </si>
+  <si>
+    <t>greyScaleResults</t>
   </si>
   <si>
     <t>imageName</t>
@@ -924,7 +3159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -934,14 +3169,24 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,69 +3199,69 @@
   <dimension ref="A1:C147"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.82421875" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.6015625" customWidth="true"/>
+    <col min="1" max="1" width="27.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="16" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>148</v>
+        <v>893</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>295</v>
+        <v>1040</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>296</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>894</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>0.82347738570862183</v>
       </c>
       <c r="C2" s="0">
-        <v>0.38563528077141235</v>
+        <v>0.86309225797642342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>150</v>
+        <v>895</v>
       </c>
       <c r="B3" s="0">
-        <v>0.062456627342123525</v>
+        <v>0.74873086229800023</v>
       </c>
       <c r="C3" s="0">
-        <v>0.21000878715789023</v>
+        <v>0.26338311346213805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>151</v>
+        <v>896</v>
       </c>
       <c r="B4" s="0">
         <v>0.76685315240249174</v>
       </c>
       <c r="C4" s="0">
-        <v>0.056013554259264471</v>
+        <v>0.77017286301895282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>152</v>
+        <v>897</v>
       </c>
       <c r="B5" s="0">
         <v>0.81949149520379416</v>
       </c>
       <c r="C5" s="0">
-        <v>0.13250688705234159</v>
+        <v>0.81629871695883915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>153</v>
+        <v>898</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1027,40 +3272,40 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>154</v>
+        <v>899</v>
       </c>
       <c r="B7" s="0">
         <v>0.78559943384346398</v>
       </c>
       <c r="C7" s="0">
-        <v>0.086121340684268716</v>
+        <v>0.78690160258388364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>155</v>
+        <v>900</v>
       </c>
       <c r="B8" s="0">
         <v>0.76512455516014233</v>
       </c>
       <c r="C8" s="0">
-        <v>0.056822051936994467</v>
+        <v>0.27918550825462229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>156</v>
+        <v>901</v>
       </c>
       <c r="B9" s="0">
         <v>0.83120066472787701</v>
       </c>
       <c r="C9" s="0">
-        <v>0.15750865414188212</v>
+        <v>0.83376609887827169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>157</v>
+        <v>902</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -1071,175 +3316,175 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>158</v>
+        <v>903</v>
       </c>
       <c r="B11" s="0">
         <v>0.89172331067572974</v>
       </c>
       <c r="C11" s="0">
-        <v>0.10505931377491011</v>
+        <v>0.89644142343062772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>904</v>
       </c>
       <c r="B12" s="0">
-        <v>0.86702533925783598</v>
+        <v>0.17967660797700324</v>
       </c>
       <c r="C12" s="0">
-        <v>0.092020610967979394</v>
+        <v>0.14831380691087054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>160</v>
+        <v>905</v>
       </c>
       <c r="B13" s="0">
+        <v>0.64398235664776304</v>
+      </c>
+      <c r="C13" s="0">
         <v>0</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0.067700445790585068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>161</v>
+        <v>906</v>
       </c>
       <c r="B14" s="0">
         <v>0.76982169455883642</v>
       </c>
       <c r="C14" s="0">
-        <v>0.35717694701807479</v>
+        <v>0.80256724787523004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>162</v>
+        <v>907</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0.14550389843567757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>163</v>
+        <v>908</v>
       </c>
       <c r="B16" s="0">
         <v>0.72204652342935849</v>
       </c>
       <c r="C16" s="0">
-        <v>0.090090259250430238</v>
+        <v>0.7468940581588176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>164</v>
+        <v>909</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>0.75733197122547147</v>
       </c>
       <c r="C17" s="0">
-        <v>0.077305034550839091</v>
+        <v>0.76206529604563056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>165</v>
+        <v>910</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>0.84329359753690691</v>
       </c>
       <c r="C18" s="0">
-        <v>0.079413097993827161</v>
+        <v>0.84745695938226373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>166</v>
+        <v>911</v>
       </c>
       <c r="B19" s="0">
         <v>0.79758043546687474</v>
       </c>
       <c r="C19" s="0">
-        <v>0.12224320829241607</v>
+        <v>0.79758043546687474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>167</v>
+        <v>912</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>0.16013071895424835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>168</v>
+        <v>913</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>0.79573738184737786</v>
       </c>
       <c r="C21" s="0">
-        <v>0.071746753676068684</v>
+        <v>0.80077369439071566</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>169</v>
+        <v>914</v>
       </c>
       <c r="B22" s="0">
         <v>0.85395552314983592</v>
       </c>
       <c r="C22" s="0">
-        <v>0.091241725709343718</v>
+        <v>0.85996678413740024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>170</v>
+        <v>915</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>0.86132610939112486</v>
       </c>
       <c r="C23" s="0">
-        <v>0.092133428581079646</v>
+        <v>0.87512899896800822</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>171</v>
+        <v>916</v>
       </c>
       <c r="B24" s="0">
-        <v>0.72817585413649144</v>
+        <v>0.19527829718623685</v>
       </c>
       <c r="C24" s="0">
-        <v>0.17623775855562218</v>
+        <v>0.25798514997296396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>172</v>
+        <v>917</v>
       </c>
       <c r="B25" s="0">
-        <v>0.80217956373599353</v>
+        <v>0.16613562091503267</v>
       </c>
       <c r="C25" s="0">
-        <v>0.1014568677343711</v>
+        <v>0.15201952240591227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>173</v>
+        <v>918</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.78595576161499081</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -1247,172 +3492,172 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>174</v>
+        <v>919</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0.058999875088478995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>175</v>
+        <v>920</v>
       </c>
       <c r="B28" s="0">
         <v>0.86305317259362835</v>
       </c>
       <c r="C28" s="0">
-        <v>0.12637485970819304</v>
+        <v>0.86822115566305125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>176</v>
+        <v>921</v>
       </c>
       <c r="B29" s="0">
-        <v>0.80553334619944306</v>
+        <v>0.14062069901331731</v>
       </c>
       <c r="C29" s="0">
-        <v>0.10324382176628315</v>
+        <v>0.13765842902171088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>177</v>
+        <v>922</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.86995015590504587</v>
       </c>
       <c r="C30" s="0">
-        <v>0.13285793759166539</v>
+        <v>0.22911215768358625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>178</v>
+        <v>923</v>
       </c>
       <c r="B31" s="0">
-        <v>0.76613724485600609</v>
+        <v>0.15650224215246636</v>
       </c>
       <c r="C31" s="0">
-        <v>0.11022312763536578</v>
+        <v>0.14623662478355459</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>179</v>
+        <v>924</v>
       </c>
       <c r="B32" s="0">
-        <v>0.046724890829694325</v>
+        <v>0.69081585081585084</v>
       </c>
       <c r="C32" s="0">
-        <v>0.13487851501584586</v>
+        <v>0.86228634561642947</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>180</v>
+        <v>925</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>0.75634185440350465</v>
       </c>
       <c r="C33" s="0">
-        <v>0.1249128717472119</v>
+        <v>0.76887871853546907</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>181</v>
+        <v>926</v>
       </c>
       <c r="B34" s="0">
-        <v>0.8686155913978495</v>
+        <v>0.15364658961104335</v>
       </c>
       <c r="C34" s="0">
-        <v>0.10059770936427434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>182</v>
+        <v>927</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.81425233644859818</v>
       </c>
       <c r="C35" s="0">
-        <v>0.084651898734177208</v>
+        <v>0.81558281412253375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>183</v>
+        <v>928</v>
       </c>
       <c r="B36" s="0">
         <v>0.8104826204165374</v>
       </c>
       <c r="C36" s="0">
-        <v>0.10060723886328725</v>
+        <v>0.81227679956046683</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>184</v>
+        <v>929</v>
       </c>
       <c r="B37" s="0">
         <v>0.82473734479465144</v>
       </c>
       <c r="C37" s="0">
-        <v>0.12412461576242051</v>
+        <v>0.82823941419929958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>185</v>
+        <v>930</v>
       </c>
       <c r="B38" s="0">
-        <v>0</v>
+        <v>0.86265095947247539</v>
       </c>
       <c r="C38" s="0">
-        <v>0.29012579211198336</v>
+        <v>0.86940801659628064</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>186</v>
+        <v>931</v>
       </c>
       <c r="B39" s="0">
         <v>0.80786584396829897</v>
       </c>
       <c r="C39" s="0">
-        <v>0.27791416992231571</v>
+        <v>0.87962163245282499</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>187</v>
+        <v>932</v>
       </c>
       <c r="B40" s="0">
-        <v>0</v>
+        <v>0.68549796156086196</v>
       </c>
       <c r="C40" s="0">
-        <v>0.036475981662348014</v>
+        <v>0.078355812459858704</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>188</v>
+        <v>933</v>
       </c>
       <c r="B41" s="0">
         <v>0.91985537190082645</v>
       </c>
       <c r="C41" s="0">
-        <v>0.09452269618830067</v>
+        <v>0.92421487603305785</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>189</v>
+        <v>934</v>
       </c>
       <c r="B42" s="0">
         <v>0</v>
@@ -1423,604 +3668,604 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>190</v>
+        <v>935</v>
       </c>
       <c r="B43" s="0">
         <v>0.87010706768134716</v>
       </c>
       <c r="C43" s="0">
-        <v>0.17509018874075963</v>
+        <v>0.88531209520725385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>191</v>
+        <v>936</v>
       </c>
       <c r="B44" s="0">
         <v>0.81816295601342326</v>
       </c>
       <c r="C44" s="0">
-        <v>0.26383533735088871</v>
+        <v>0.81984988994334784</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>192</v>
+        <v>937</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
+        <v>0.83973410087719302</v>
       </c>
       <c r="C45" s="0">
-        <v>0.14665532982373622</v>
+        <v>0.85389254385964908</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>193</v>
+        <v>938</v>
       </c>
       <c r="B46" s="0">
         <v>0.88973411518997514</v>
       </c>
       <c r="C46" s="0">
-        <v>0.31960504426051056</v>
+        <v>0.88973411518997514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>194</v>
+        <v>939</v>
       </c>
       <c r="B47" s="0">
         <v>0.80362313653784834</v>
       </c>
       <c r="C47" s="0">
-        <v>0.12664738264767933</v>
+        <v>0.84298440255337426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>195</v>
+        <v>940</v>
       </c>
       <c r="B48" s="0">
-        <v>0</v>
+        <v>0.84474141677531511</v>
       </c>
       <c r="C48" s="0">
-        <v>0.12700673119116418</v>
+        <v>0.86276075619295955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>196</v>
+        <v>941</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.8333112652931518</v>
       </c>
       <c r="C49" s="0">
-        <v>0.07284336419753086</v>
+        <v>0.83874000317779773</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>197</v>
+        <v>942</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
+        <v>0.78641799694431269</v>
       </c>
       <c r="C50" s="0">
-        <v>0.17817516192621796</v>
+        <v>0.80475212054159417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>198</v>
+        <v>943</v>
       </c>
       <c r="B51" s="0">
-        <v>0.87094697933300436</v>
+        <v>0.12179380025809464</v>
       </c>
       <c r="C51" s="0">
-        <v>0.14006799876236189</v>
+        <v>0.19944465041162399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>199</v>
+        <v>944</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
+        <v>0.87668698654002963</v>
       </c>
       <c r="C52" s="0">
-        <v>0.066975308641975304</v>
+        <v>0.86785102845941986</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>200</v>
+        <v>945</v>
       </c>
       <c r="B53" s="0">
         <v>0.76211074790473621</v>
       </c>
       <c r="C53" s="0">
-        <v>0.13760484307359308</v>
+        <v>0.79356428343205443</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>201</v>
+        <v>946</v>
       </c>
       <c r="B54" s="0">
-        <v>0.90351561653336798</v>
+        <v>0.25613097171217536</v>
       </c>
       <c r="C54" s="0">
-        <v>0.16341761245653291</v>
+        <v>0.23698099251874166</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>202</v>
+        <v>947</v>
       </c>
       <c r="B55" s="0">
-        <v>0</v>
+        <v>0.86798735432216545</v>
       </c>
       <c r="C55" s="0">
-        <v>0.18040294276457883</v>
+        <v>0.8934096563593168</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>203</v>
+        <v>948</v>
       </c>
       <c r="B56" s="0">
         <v>0.67473223548163264</v>
       </c>
       <c r="C56" s="0">
-        <v>0.13577179123397612</v>
+        <v>0.76897710175395206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>204</v>
+        <v>949</v>
       </c>
       <c r="B57" s="0">
-        <v>0</v>
+        <v>0.77871878393051031</v>
       </c>
       <c r="C57" s="0">
-        <v>0.10678813263027206</v>
+        <v>0.78205963417689806</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>205</v>
+        <v>950</v>
       </c>
       <c r="B58" s="0">
-        <v>0</v>
+        <v>0.87396226415094336</v>
       </c>
       <c r="C58" s="0">
-        <v>0.10319091400757166</v>
+        <v>0.87984626135569532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>206</v>
+        <v>951</v>
       </c>
       <c r="B59" s="0">
-        <v>0.86982417234278475</v>
+        <v>0.24320680090404767</v>
       </c>
       <c r="C59" s="0">
-        <v>0.16026639136174389</v>
+        <v>0.22660811716282186</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>207</v>
+        <v>952</v>
       </c>
       <c r="B60" s="0">
         <v>0.80065964464304717</v>
       </c>
       <c r="C60" s="0">
-        <v>0.11896082987803952</v>
+        <v>0.8337779819431439</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>208</v>
+        <v>953</v>
       </c>
       <c r="B61" s="0">
-        <v>0</v>
+        <v>0.18253252269392511</v>
       </c>
       <c r="C61" s="0">
-        <v>0.095507258621449667</v>
+        <v>0.17127635046113307</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>209</v>
+        <v>954</v>
       </c>
       <c r="B62" s="0">
         <v>0.85681770120315648</v>
       </c>
       <c r="C62" s="0">
-        <v>0.14851848484598029</v>
+        <v>0.86558816654980131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>210</v>
+        <v>955</v>
       </c>
       <c r="B63" s="0">
         <v>0.9407377874918571</v>
       </c>
       <c r="C63" s="0">
-        <v>0.11477751448130595</v>
+        <v>0.94219077045749033</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>211</v>
+        <v>956</v>
       </c>
       <c r="B64" s="0">
         <v>0.862464625675328</v>
       </c>
       <c r="C64" s="0">
-        <v>0.14211857961857963</v>
+        <v>0.87067790069462314</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>212</v>
+        <v>957</v>
       </c>
       <c r="B65" s="0">
         <v>0.79175354675170695</v>
       </c>
       <c r="C65" s="0">
-        <v>0.10630627106599647</v>
+        <v>0.8516803630565436</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>213</v>
+        <v>958</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
+        <v>0.23737653863776514</v>
       </c>
       <c r="C66" s="0">
-        <v>0.12409824624597582</v>
+        <v>0.22234269119070668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>214</v>
+        <v>959</v>
       </c>
       <c r="B67" s="0">
-        <v>0.0282587735457118</v>
+        <v>0.66416377871903476</v>
       </c>
       <c r="C67" s="0">
-        <v>0.11836424253861506</v>
+        <v>0.25311223616308365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>215</v>
+        <v>960</v>
       </c>
       <c r="B68" s="0">
         <v>0.7712403706598191</v>
       </c>
       <c r="C68" s="0">
-        <v>0.15399106002554278</v>
+        <v>0.77246846042201633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>216</v>
+        <v>961</v>
       </c>
       <c r="B69" s="0">
-        <v>0</v>
+        <v>0.91924229467436058</v>
       </c>
       <c r="C69" s="0">
-        <v>0.1185952192215176</v>
+        <v>0.92211730550884607</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>217</v>
+        <v>962</v>
       </c>
       <c r="B70" s="0">
         <v>0.8278922494717823</v>
       </c>
       <c r="C70" s="0">
-        <v>0.14848102991450005</v>
+        <v>0.8457604275179359</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>218</v>
+        <v>963</v>
       </c>
       <c r="B71" s="0">
-        <v>0.87673403816512163</v>
+        <v>0.29024595156581462</v>
       </c>
       <c r="C71" s="0">
-        <v>0.14077977010932186</v>
+        <v>0.27447806284895948</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>219</v>
+        <v>964</v>
       </c>
       <c r="B72" s="0">
-        <v>0</v>
+        <v>0.02274139863958223</v>
       </c>
       <c r="C72" s="0">
-        <v>0.31686046511627908</v>
+        <v>0.33435516268783111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>220</v>
+        <v>965</v>
       </c>
       <c r="B73" s="0">
-        <v>0</v>
+        <v>0.075837207300275489</v>
       </c>
       <c r="C73" s="0">
-        <v>0.067972608024691364</v>
+        <v>0.068800765385816934</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>221</v>
+        <v>966</v>
       </c>
       <c r="B74" s="0">
-        <v>0.39388874905612886</v>
+        <v>0</v>
       </c>
       <c r="C74" s="0">
-        <v>0.40816851583855923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>222</v>
+        <v>967</v>
       </c>
       <c r="B75" s="0">
-        <v>0.9024099001302649</v>
+        <v>0.48438470846005427</v>
       </c>
       <c r="C75" s="0">
-        <v>0.28146674497635432</v>
+        <v>0.51798722962925936</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>223</v>
+        <v>968</v>
       </c>
       <c r="B76" s="0">
         <v>0.7858165256994144</v>
       </c>
       <c r="C76" s="0">
-        <v>0.1436703713743562</v>
+        <v>0.79864671437865975</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>224</v>
+        <v>969</v>
       </c>
       <c r="B77" s="0">
         <v>0.80023510198221481</v>
       </c>
       <c r="C77" s="0">
-        <v>0.12498541999389882</v>
+        <v>0.80254125501386386</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>225</v>
+        <v>970</v>
       </c>
       <c r="B78" s="0">
         <v>0.87549644789208536</v>
       </c>
       <c r="C78" s="0">
-        <v>0.13999814846715344</v>
+        <v>0.87549644789208536</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>226</v>
+        <v>971</v>
       </c>
       <c r="B79" s="0">
-        <v>0</v>
+        <v>0.87543170085167776</v>
       </c>
       <c r="C79" s="0">
-        <v>0.14671039311426162</v>
+        <v>0.89915212880341844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>227</v>
+        <v>972</v>
       </c>
       <c r="B80" s="0">
         <v>0.83346145424219975</v>
       </c>
       <c r="C80" s="0">
-        <v>0.088679697805492272</v>
+        <v>0.83374804079791265</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>228</v>
+        <v>973</v>
       </c>
       <c r="B81" s="0">
         <v>0.80230243902439025</v>
       </c>
       <c r="C81" s="0">
-        <v>0.16571173594764479</v>
+        <v>0.79036097560975604</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>229</v>
+        <v>974</v>
       </c>
       <c r="B82" s="0">
         <v>0.81725146198830412</v>
       </c>
       <c r="C82" s="0">
-        <v>0.094646536084376245</v>
+        <v>0.83322890559732665</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>230</v>
+        <v>975</v>
       </c>
       <c r="B83" s="0">
-        <v>0</v>
+        <v>0.81330819563047574</v>
       </c>
       <c r="C83" s="0">
-        <v>0.072854049511990177</v>
+        <v>0.82835385013493035</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>231</v>
+        <v>976</v>
       </c>
       <c r="B84" s="0">
-        <v>0</v>
+        <v>0.63942394239423939</v>
       </c>
       <c r="C84" s="0">
-        <v>0.058650252338619424</v>
+        <v>0.090878668088933509</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>232</v>
+        <v>977</v>
       </c>
       <c r="B85" s="0">
         <v>0.82374768089053807</v>
       </c>
       <c r="C85" s="0">
-        <v>0.20236919927849684</v>
+        <v>0.82985001229407429</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>233</v>
+        <v>978</v>
       </c>
       <c r="B86" s="0">
-        <v>0</v>
+        <v>0.83760129659643434</v>
       </c>
       <c r="C86" s="0">
-        <v>0.085734453856244022</v>
+        <v>0.83541288108217238</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>234</v>
+        <v>979</v>
       </c>
       <c r="B87" s="0">
-        <v>0</v>
+        <v>0.86559809389722209</v>
       </c>
       <c r="C87" s="0">
-        <v>0.03513945108010922</v>
+        <v>0.24369904124505351</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>235</v>
+        <v>980</v>
       </c>
       <c r="B88" s="0">
-        <v>0</v>
+        <v>0.81164043456017332</v>
       </c>
       <c r="C88" s="0">
-        <v>0.0640991512345679</v>
+        <v>0.81294953203527043</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>236</v>
+        <v>981</v>
       </c>
       <c r="B89" s="0">
         <v>0</v>
       </c>
       <c r="C89" s="0">
-        <v>0.052990908175931828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>237</v>
+        <v>982</v>
       </c>
       <c r="B90" s="0">
-        <v>0</v>
+        <v>0.15321182665046579</v>
       </c>
       <c r="C90" s="0">
-        <v>0</v>
+        <v>0.15175250249493452</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>238</v>
+        <v>983</v>
       </c>
       <c r="B91" s="0">
         <v>0.80443728527742475</v>
       </c>
       <c r="C91" s="0">
-        <v>0.1061204594017094</v>
+        <v>0.83309213092885992</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>239</v>
+        <v>984</v>
       </c>
       <c r="B92" s="0">
         <v>0.89209570054989229</v>
       </c>
       <c r="C92" s="0">
-        <v>0.2183233814603803</v>
+        <v>0.89556066501591791</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>240</v>
+        <v>985</v>
       </c>
       <c r="B93" s="0">
         <v>0.85990552510402518</v>
       </c>
       <c r="C93" s="0">
-        <v>0.11089369719662058</v>
+        <v>0.86304386643652165</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>241</v>
+        <v>986</v>
       </c>
       <c r="B94" s="0">
-        <v>0</v>
+        <v>0.79477701149425284</v>
       </c>
       <c r="C94" s="0">
-        <v>0.10790260487637091</v>
+        <v>0.82883678160919538</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>242</v>
+        <v>987</v>
       </c>
       <c r="B95" s="0">
-        <v>0</v>
+        <v>0.83971897196141643</v>
       </c>
       <c r="C95" s="0">
-        <v>0.10502942515555705</v>
+        <v>0.84963458648547974</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>243</v>
+        <v>988</v>
       </c>
       <c r="B96" s="0">
-        <v>0</v>
+        <v>0.87602836879432622</v>
       </c>
       <c r="C96" s="0">
-        <v>0.077139598053456104</v>
+        <v>0.89313829787234045</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>244</v>
+        <v>989</v>
       </c>
       <c r="B97" s="0">
-        <v>0</v>
+        <v>0.41754671918684277</v>
       </c>
       <c r="C97" s="0">
         <v>0.39842979106782789</v>
@@ -2028,263 +4273,263 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>245</v>
+        <v>990</v>
       </c>
       <c r="B98" s="0">
         <v>0.73026349647470534</v>
       </c>
       <c r="C98" s="0">
-        <v>0.063827113959040074</v>
+        <v>0.74687355257063459</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>246</v>
+        <v>991</v>
       </c>
       <c r="B99" s="0">
-        <v>0</v>
+        <v>0.20925436439636094</v>
       </c>
       <c r="C99" s="0">
-        <v>0.15346625040855658</v>
+        <v>0.20203869665855539</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>247</v>
+        <v>992</v>
       </c>
       <c r="B100" s="0">
-        <v>0.84534106244632556</v>
+        <v>0.17323202805376972</v>
       </c>
       <c r="C100" s="0">
-        <v>0.11206896551724138</v>
+        <v>0.16646074356958329</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>248</v>
+        <v>993</v>
       </c>
       <c r="B101" s="0">
-        <v>0</v>
+        <v>0.82054254145712202</v>
       </c>
       <c r="C101" s="0">
-        <v>0.10576801392074665</v>
+        <v>0.82587073977827219</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>249</v>
+        <v>994</v>
       </c>
       <c r="B102" s="0">
-        <v>0</v>
+        <v>0.87763545930718778</v>
       </c>
       <c r="C102" s="0">
-        <v>0.067843333373992162</v>
+        <v>0.87096633509356614</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>250</v>
+        <v>995</v>
       </c>
       <c r="B103" s="0">
-        <v>0</v>
+        <v>0.82355912812207477</v>
       </c>
       <c r="C103" s="0">
-        <v>0.097371238425925932</v>
+        <v>0.82632274935738381</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>251</v>
+        <v>996</v>
       </c>
       <c r="B104" s="0">
-        <v>0</v>
+        <v>0.17160507666056371</v>
       </c>
       <c r="C104" s="0">
-        <v>0.094998523333061372</v>
+        <v>0.12757623972011869</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>252</v>
+        <v>997</v>
       </c>
       <c r="B105" s="0">
-        <v>0</v>
+        <v>0.22245202848217924</v>
       </c>
       <c r="C105" s="0">
-        <v>0.11308160034717256</v>
+        <v>0.20613622675092816</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>253</v>
+        <v>998</v>
       </c>
       <c r="B106" s="0">
-        <v>0</v>
+        <v>0.81465416936005175</v>
       </c>
       <c r="C106" s="0">
-        <v>0.074604552469135804</v>
+        <v>0.81725274725274721</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>254</v>
+        <v>999</v>
       </c>
       <c r="B107" s="0">
-        <v>0</v>
+        <v>0.70743145743145741</v>
       </c>
       <c r="C107" s="0">
-        <v>0.070432296996859226</v>
+        <v>0.097222222222222224</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>255</v>
+        <v>1000</v>
       </c>
       <c r="B108" s="0">
-        <v>0</v>
+        <v>0.19178578404389438</v>
       </c>
       <c r="C108" s="0">
-        <v>0.10269702343315441</v>
+        <v>0.13970495980546233</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>256</v>
+        <v>1001</v>
       </c>
       <c r="B109" s="0">
-        <v>0</v>
+        <v>0.88225982340732401</v>
       </c>
       <c r="C109" s="0">
-        <v>0.07240039120202936</v>
+        <v>0.88225982340732401</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>257</v>
+        <v>1002</v>
       </c>
       <c r="B110" s="0">
         <v>0</v>
       </c>
       <c r="C110" s="0">
-        <v>0.039369540551993765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>258</v>
+        <v>1003</v>
       </c>
       <c r="B111" s="0">
-        <v>0</v>
+        <v>0.78375985123527847</v>
       </c>
       <c r="C111" s="0">
-        <v>0.074504370773544451</v>
+        <v>0.80722571504471796</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>259</v>
+        <v>1004</v>
       </c>
       <c r="B112" s="0">
-        <v>0</v>
+        <v>0.7565476986887878</v>
       </c>
       <c r="C112" s="0">
-        <v>0.086788210610044533</v>
+        <v>0.76053652662563553</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>260</v>
+        <v>1005</v>
       </c>
       <c r="B113" s="0">
-        <v>0</v>
+        <v>0.84274935400516793</v>
       </c>
       <c r="C113" s="0">
-        <v>0.069986979166666671</v>
+        <v>0.84840654608096466</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>261</v>
+        <v>1006</v>
       </c>
       <c r="B114" s="0">
-        <v>0.057981952420016407</v>
+        <v>0.64191284478537625</v>
       </c>
       <c r="C114" s="0">
-        <v>0.61407479808632126</v>
+        <v>0.61560512499100972</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>262</v>
+        <v>1007</v>
       </c>
       <c r="B115" s="0">
-        <v>0.16167039434263375</v>
+        <v>0.63911681336714898</v>
       </c>
       <c r="C115" s="0">
-        <v>0.58702989624301638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>263</v>
+        <v>1008</v>
       </c>
       <c r="B116" s="0">
-        <v>0</v>
+        <v>0.30426016414440915</v>
       </c>
       <c r="C116" s="0">
-        <v>0</v>
+        <v>0.099104528351451379</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>264</v>
+        <v>1009</v>
       </c>
       <c r="B117" s="0">
-        <v>0</v>
+        <v>0.2363971656794652</v>
       </c>
       <c r="C117" s="0">
-        <v>0</v>
+        <v>0.10496458719024407</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>265</v>
+        <v>1010</v>
       </c>
       <c r="B118" s="0">
-        <v>0</v>
+        <v>0.30229331277702831</v>
       </c>
       <c r="C118" s="0">
-        <v>0</v>
+        <v>0.12649685327306684</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>266</v>
+        <v>1011</v>
       </c>
       <c r="B119" s="0">
-        <v>0</v>
+        <v>0.46851066663706797</v>
       </c>
       <c r="C119" s="0">
-        <v>0</v>
+        <v>0.18378823206693184</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>267</v>
+        <v>1012</v>
       </c>
       <c r="B120" s="0">
-        <v>0.53423269059053502</v>
+        <v>0.48580579414761976</v>
       </c>
       <c r="C120" s="0">
-        <v>0.25483513471644603</v>
+        <v>0.28795023459824315</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>268</v>
+        <v>1013</v>
       </c>
       <c r="B121" s="0">
-        <v>0.019439230121193689</v>
+        <v>0.70251294154981259</v>
       </c>
       <c r="C121" s="0">
         <v>0.6852521813151734</v>
@@ -2292,153 +4537,153 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>269</v>
+        <v>1014</v>
       </c>
       <c r="B122" s="0">
-        <v>0.028227324049680091</v>
+        <v>0.33738516561864468</v>
       </c>
       <c r="C122" s="0">
-        <v>0.11354973791110358</v>
+        <v>0.11337504600662496</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>270</v>
+        <v>1015</v>
       </c>
       <c r="B123" s="0">
         <v>0</v>
       </c>
       <c r="C123" s="0">
-        <v>0.12677997243913641</v>
+        <v>0.1265764732859436</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>271</v>
+        <v>1016</v>
       </c>
       <c r="B124" s="0">
-        <v>0.085074779177485738</v>
+        <v>0</v>
       </c>
       <c r="C124" s="0">
-        <v>0.16672493246464326</v>
+        <v>0.16558298087241968</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>272</v>
+        <v>1017</v>
       </c>
       <c r="B125" s="0">
-        <v>0</v>
+        <v>0.15276430649854511</v>
       </c>
       <c r="C125" s="0">
-        <v>0</v>
+        <v>0.063087655444343346</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>273</v>
+        <v>1018</v>
       </c>
       <c r="B126" s="0">
-        <v>0</v>
+        <v>0.014890289743863704</v>
       </c>
       <c r="C126" s="0">
-        <v>0</v>
+        <v>0.056641837368094354</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>274</v>
+        <v>1019</v>
       </c>
       <c r="B127" s="0">
         <v>0</v>
       </c>
       <c r="C127" s="0">
-        <v>0</v>
+        <v>0.059241360634907411</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>275</v>
+        <v>1020</v>
       </c>
       <c r="B128" s="0">
         <v>0</v>
       </c>
       <c r="C128" s="0">
-        <v>0</v>
+        <v>0.048775043250181373</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>276</v>
+        <v>1021</v>
       </c>
       <c r="B129" s="0">
         <v>0</v>
       </c>
       <c r="C129" s="0">
-        <v>0</v>
+        <v>0.058814338645596181</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="B130" s="0">
         <v>0</v>
       </c>
       <c r="C130" s="0">
-        <v>0</v>
+        <v>0.071104198549471018</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>278</v>
+        <v>1023</v>
       </c>
       <c r="B131" s="0">
         <v>0</v>
       </c>
       <c r="C131" s="0">
-        <v>0</v>
+        <v>0.086461710063090377</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>279</v>
+        <v>1024</v>
       </c>
       <c r="B132" s="0">
         <v>0</v>
       </c>
       <c r="C132" s="0">
-        <v>0</v>
+        <v>0.12390924956369982</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>280</v>
+        <v>1025</v>
       </c>
       <c r="B133" s="0">
-        <v>0</v>
+        <v>0.86295214558526179</v>
       </c>
       <c r="C133" s="0">
-        <v>0</v>
+        <v>0.15256045519203415</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>281</v>
+        <v>1026</v>
       </c>
       <c r="B134" s="0">
-        <v>0.29467712897856585</v>
+        <v>0.62532950618007144</v>
       </c>
       <c r="C134" s="0">
-        <v>0</v>
+        <v>0.24828829818394846</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>282</v>
+        <v>1027</v>
       </c>
       <c r="B135" s="0">
-        <v>0.0014650822073905259</v>
+        <v>0.024572014905222227</v>
       </c>
       <c r="C135" s="0">
         <v>0.2655506000474005</v>
@@ -2446,10 +4691,10 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>283</v>
+        <v>1028</v>
       </c>
       <c r="B136" s="0">
-        <v>0</v>
+        <v>0.82384028185554903</v>
       </c>
       <c r="C136" s="0">
         <v>0.18608121815574391</v>
@@ -2457,32 +4702,32 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>284</v>
+        <v>1029</v>
       </c>
       <c r="B137" s="0">
-        <v>0</v>
+        <v>0.57180805188532791</v>
       </c>
       <c r="C137" s="0">
-        <v>0</v>
+        <v>0.071253644314868803</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>285</v>
+        <v>1030</v>
       </c>
       <c r="B138" s="0">
-        <v>0</v>
+        <v>0.61639466344431249</v>
       </c>
       <c r="C138" s="0">
-        <v>0</v>
+        <v>0.20391993957703927</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>286</v>
+        <v>1031</v>
       </c>
       <c r="B139" s="0">
-        <v>0.18220129203646682</v>
+        <v>0.39013605442176869</v>
       </c>
       <c r="C139" s="0">
         <v>0.15852029299304371</v>
@@ -2490,10 +4735,10 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>287</v>
+        <v>1032</v>
       </c>
       <c r="B140" s="0">
-        <v>0.27161987313676195</v>
+        <v>0.45769621095182461</v>
       </c>
       <c r="C140" s="0">
         <v>0.24690522243713733</v>
@@ -2501,10 +4746,10 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>288</v>
+        <v>1033</v>
       </c>
       <c r="B141" s="0">
-        <v>0.382159758050169</v>
+        <v>0.73412115966028124</v>
       </c>
       <c r="C141" s="0">
         <v>0.35422526746003125</v>
@@ -2512,10 +4757,10 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>289</v>
+        <v>1034</v>
       </c>
       <c r="B142" s="0">
-        <v>0</v>
+        <v>0.67030045820751083</v>
       </c>
       <c r="C142" s="0">
         <v>0.18442097769340293</v>
@@ -2523,10 +4768,10 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>290</v>
+        <v>1035</v>
       </c>
       <c r="B143" s="0">
-        <v>0</v>
+        <v>0.81578185607595666</v>
       </c>
       <c r="C143" s="0">
         <v>0.15872178308726531</v>
@@ -2534,10 +4779,10 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>291</v>
+        <v>1036</v>
       </c>
       <c r="B144" s="0">
-        <v>0</v>
+        <v>0.62261343912720057</v>
       </c>
       <c r="C144" s="0">
         <v>0.14276960125568444</v>
@@ -2545,10 +4790,10 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>292</v>
+        <v>1037</v>
       </c>
       <c r="B145" s="0">
-        <v>0</v>
+        <v>0.60985211468234446</v>
       </c>
       <c r="C145" s="0">
         <v>0.13731177750287932</v>
@@ -2556,10 +4801,10 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>293</v>
+        <v>1038</v>
       </c>
       <c r="B146" s="0">
-        <v>0</v>
+        <v>0.87003251445086704</v>
       </c>
       <c r="C146" s="0">
         <v>0.1197879476360489</v>
@@ -2567,10 +4812,10 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>294</v>
+        <v>1039</v>
       </c>
       <c r="B147" s="0">
-        <v>0</v>
+        <v>0.40658768389532612</v>
       </c>
       <c r="C147" s="0">
         <v>0.14720927588950777</v>
